--- a/冒泡排序原理.xlsx
+++ b/冒泡排序原理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gxl20\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\StudyCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B672CE-EED0-4B89-BAF7-E0EF9BA532DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8397FB-1D7B-482C-802A-8B5E6AADC9D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4308" yWindow="2208" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -369,7 +369,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.6" customHeight="1" x14ac:dyDescent="0.6"/>
@@ -442,6 +442,9 @@
       <c r="F3" s="2">
         <v>8</v>
       </c>
+      <c r="G3" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="1">
@@ -459,6 +462,12 @@
       <c r="E4" s="2">
         <v>7</v>
       </c>
+      <c r="F4" s="1">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="1">
@@ -473,6 +482,15 @@
       <c r="D5" s="2">
         <v>6</v>
       </c>
+      <c r="E5" s="1">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="1">
@@ -484,6 +502,18 @@
       <c r="C6" s="2">
         <v>4</v>
       </c>
+      <c r="D6" s="1">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A7" s="1">
@@ -492,10 +522,43 @@
       <c r="B7" s="2">
         <v>3</v>
       </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A8" s="2">
         <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
